--- a/data.xlsx
+++ b/data.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="W15" sqref="W15"/>
@@ -1639,6 +1639,78 @@
           <t>Tiên - Nhỏ</t>
         </is>
       </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1651,7 +1723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -9422,6 +9494,552 @@
         </is>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2024-09-04 22:00:00</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>757,256</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>1,128,881</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>757,256</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>2024-09-04 22:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2024-09-04 23:00:00</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>604,219</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>1,456,414</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>1,456,414</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>2024-09-04 23:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2024-09-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>1,207,820</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>2,068,628</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>1,207,820</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>2024-09-05 00:04:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2024-09-05 01:00:00</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>1,991,846</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>266,091</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>266,091</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>2024-09-05 01:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:00:00</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>728,199</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>148,690</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>728,199</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2024-09-05 03:00:00</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>419,876</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>121,621</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>419,876</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>2024-09-05 03:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2024-09-05 04:00:00</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>94,551</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>276,500</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>94,551</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>2024-09-05 04:02:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2024-09-05 05:00:00</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>36,880</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>72,696</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>72,696</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>2024-09-05 05:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2024-09-05 06:00:00</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>344,241</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>445,157</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>445,157</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>2024-09-05 06:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2024-09-05 07:00:00</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>668,595</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>369,856</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>369,856</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>2024-09-05 07:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2024-09-05 08:00:00</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>590,507</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>130,374</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>130,374</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>2024-09-05 08:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2024-09-05 09:00:00</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>1,809,487</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>1,647,605</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>1,809,487</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>2024-09-05 09:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:00:00</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>2,459,526</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>1,215,804</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>2,459,526</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>2024-09-05 10:02:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1711,6 +1711,46 @@
           <t>Tiên - Lớn</t>
         </is>
       </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1723,7 +1763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H207"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -10040,6 +10080,342 @@
         </is>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2024-09-05 11:00:00</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>1,385,024</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>513,072</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>513,072</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>2024-09-05 11:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2024-09-05 12:00:00</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>386,856</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>2,839,151</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>2,839,151</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>2024-09-05 12:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2024-09-05 13:00:00</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>2,889,438</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>957,980</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>957,980</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>2024-09-05 13:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2024-09-05 14:00:00</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>981,717</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>1,304,757</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>1,304,757</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>2024-09-05 14:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2024-09-05 15:00:00</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>879,926</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>3,317,350</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>3,317,350</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>2024-09-05 15:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2024-09-05 16:00:00</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>660,850</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>1,800,266</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>660,850</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>2024-09-05 16:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2024-09-05 17:00:00</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2,910,707</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>1,330,127</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>1,330,127</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>2024-09-05 17:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2024-09-05 18:00:00</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>482,409</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>1,580,859</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>1,580,859</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>2024-09-05 18:02:17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1751,6 +1751,26 @@
           <t>Ma - Lớn</t>
         </is>
       </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1763,7 +1783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -10416,6 +10436,174 @@
         </is>
       </c>
     </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2024-09-05 19:00:00</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2,842,954</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>882,607</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>2,842,954</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>2024-09-05 19:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2024-09-05 20:00:00</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>2,597,384</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>935,605</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>2,597,384</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>2024-09-05 20:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2024-09-05 21:00:00</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>2,993,963</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>557,404</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>2,993,963</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>2024-09-05 21:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2024-09-05 22:00:00</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>402,102</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>1,058,238</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>1,058,238</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>2024-09-05 22:02:17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="W15" sqref="W15"/>
@@ -1771,6 +1771,88 @@
           <t>Ma - Lớn</t>
         </is>
       </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1783,7 +1865,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H226"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -10604,6 +10686,636 @@
         </is>
       </c>
     </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2024-09-05 23:00:00</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>1,886,410</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>3,225,659</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>1,886,410</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>2024-09-05 23:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2024-09-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>1,465,134</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>2,061,217</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>2,061,217</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>2024-09-06 00:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2024-09-06 01:00:00</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>3,309,606</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>483,795</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>3,309,606</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>2024-09-06 01:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2024-09-06 02:00:00</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>251,881</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>1,328,499</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>1,328,499</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>2024-09-06 02:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2024-09-06 03:00:00</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>1,107,000</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>89,000</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>89,000</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>2024-09-06 03:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2024-09-06 04:00:00</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>220,346</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>97,063</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>97,063</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>2024-09-06 04:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2024-09-06 05:00:00</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>85,000</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>104,062</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>85,000</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>2024-09-06 05:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2024-09-06 06:00:00</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>1,516,926</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>40,000</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>1,516,926</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>2024-09-06 06:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2024-09-06 07:00:00</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>1,602,064</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>237,793</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>237,793</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>2024-09-06 07:02:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2024-09-06 08:00:00</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>52,412</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>1,624,127</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>52,412</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>2024-09-06 08:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2024-09-06 09:00:00</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>1,461,307</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>512,069</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>1,461,307</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>2024-09-06 09:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2024-09-06 10:00:00</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>987,251</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2,079,210</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>2,079,210</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>2024-09-06 10:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2024-09-06 11:00:00</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2,446,780</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2,152,839</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>2,446,780</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>2024-09-06 11:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2024-09-06 12:00:00</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>3,244,593</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>1,660,995</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>3,244,593</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>2024-09-06 12:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2024-09-06 13:00:00</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>3,107,881</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>571,923</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>3,107,881</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>2024-09-06 13:02:17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1853,6 +1853,11 @@
           <t>Tiên - Lớn</t>
         </is>
       </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1865,7 +1870,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H226"/>
+  <dimension ref="A1:H227"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -11316,6 +11321,48 @@
         </is>
       </c>
     </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2024-09-06 14:00:00</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>1,924,897</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2,601,236</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>1,924,897</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>2024-09-06 14:02:17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1921,6 +1921,11 @@
           <t>Tiên - Lớn</t>
         </is>
       </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1933,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -11468,6 +11473,48 @@
         </is>
       </c>
     </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2024-09-06 16:00:00</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>3,998,510</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>1,493,301</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>3,998,510</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>2024-09-06 16:02:17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1926,6 +1926,26 @@
           <t>Tiên - Lớn</t>
         </is>
       </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1938,7 +1958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H229"/>
+  <dimension ref="A1:H233"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -11515,6 +11535,174 @@
         </is>
       </c>
     </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2024-09-06 17:00:00</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>4,990,293</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2,028,232</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>4,990,293</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>2024-09-06 17:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2024-09-06 18:00:00</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>1,969,509</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>4,885,276</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>4,885,276</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>2024-09-06 18:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2024-09-06 19:00:00</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>1,353,922</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>4,976,092</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>1,353,922</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>2024-09-06 19:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2024-09-06 20:00:00</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2,751,533</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>961,366</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>961,366</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>2024-09-06 20:02:17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -479,7 +479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
@@ -1946,6 +1946,33 @@
           <t>Ma - Nhỏ</t>
         </is>
       </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-09-07</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1958,7 +1985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H233"/>
+  <dimension ref="A1:H237"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -11703,6 +11730,174 @@
         </is>
       </c>
     </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2024-09-06 21:00:00</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>1,814,785</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>2,560,851</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>1,814,785</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>2024-09-06 21:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2024-09-06 22:00:00</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>3,138,279</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>1,606,839</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>1,606,839</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>2024-09-06 22:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2024-09-06 23:00:00</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>4,649,849</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2,476,949</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>4,649,849</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>2024-09-06 23:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2024-09-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>4,696,535</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>2,527,944</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>2,527,944</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>2024-09-07 00:02:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1973,6 +1973,61 @@
           <t>Ma - Nhỏ</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1985,7 +2040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H237"/>
+  <dimension ref="A1:H248"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -11898,6 +11953,468 @@
         </is>
       </c>
     </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2024-09-07 01:00:00</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>3,725,286</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>1,612,950</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>3,725,286</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>2024-09-07 01:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2024-09-07 02:00:00</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>1,844,587</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>1,543,397</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>1,844,587</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>2024-09-07 02:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2024-09-07 03:00:00</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>201,559</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>4,170,379</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>4,170,379</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>2024-09-07 03:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2024-09-07 04:00:00</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>71,963</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>2,768,149</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>2,768,149</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>2024-09-07 04:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2024-09-07 05:00:00</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>167,300</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>637,605</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>167,300</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>2024-09-07 05:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2024-09-07 06:00:00</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>638,920</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>151,000</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>151,000</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>2024-09-07 06:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2024-09-07 07:00:00</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>296,050</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>911,103</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>296,050</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>2024-09-07 07:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2024-09-07 08:00:00</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>245,861</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>1,512,175</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>245,861</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>2024-09-07 08:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2024-09-07 09:00:00</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>664,174</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>1,573,251</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>664,174</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>2024-09-07 09:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2024-09-07 10:00:00</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>1,613,550</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>314,562</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>314,562</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>2024-09-07 10:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2024-09-07 11:00:00</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>760,477</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>2,190,980</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>760,477</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>2024-09-07 11:02:17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -479,7 +479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
@@ -2028,6 +2028,88 @@
           <t>Tiên - Nhỏ</t>
         </is>
       </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-09-08</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2040,7 +2122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H248"/>
+  <dimension ref="A1:H263"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -12415,6 +12497,636 @@
         </is>
       </c>
     </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2024-09-07 12:00:00</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2,876,181</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>1,260,524</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>1,260,524</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>2024-09-07 12:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2024-09-07 13:00:00</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>4,043,193</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>1,439,934</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>1,439,934</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>2024-09-07 13:02:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2024-09-07 14:00:00</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>417,677</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>3,076,675</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>417,677</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>2024-09-07 14:02:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2024-09-07 15:00:00</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2,512,126</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>343,670</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>343,670</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>2024-09-07 15:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2024-09-07 16:00:00</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2,928,203</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>583,262</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>2,928,203</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>2024-09-07 16:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2024-09-07 17:00:00</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>446,357</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>2,965,913</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>446,357</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>2024-09-07 17:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2024-09-07 18:00:00</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>821,370</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>488,496</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>488,496</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>2024-09-07 18:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2024-09-07 19:00:00</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>1,467,169</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>479,390</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>479,390</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>2024-09-07 19:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2024-09-07 20:00:00</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>211,501</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>457,310</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>457,310</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>2024-09-07 20:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2024-09-07 21:00:00</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>871,028</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>258,811</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>258,811</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>2024-09-07 21:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2024-09-07 22:00:00</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>473,623</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>169,007</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>169,007</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>2024-09-07 22:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2024-09-07 23:00:00</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>659,116</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>254,810</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>659,116</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>2024-09-07 23:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2024-09-08 00:00:00</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>869,494</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>1,309,581</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>1,309,581</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>2024-09-08 00:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2024-09-08 01:00:00</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>427,974</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>1,208,978</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>1,208,978</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>2024-09-08 01:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2024-09-08 02:00:00</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>486,450</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>1,108,677</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>486,450</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>2024-09-08 02:02:17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2110,6 +2110,51 @@
           <t>Tiên - Nhỏ</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2122,7 +2167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H263"/>
+  <dimension ref="A1:H272"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -13127,6 +13172,384 @@
         </is>
       </c>
     </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2024-09-08 03:00:00</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>881,184</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>356,846</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>881,184</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>2024-09-08 03:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2024-09-08 04:00:00</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>665,975</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>210,698</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>665,975</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>2024-09-08 04:02:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2024-09-08 05:00:00</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>440,790</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>62,300</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>440,790</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>2024-09-08 05:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2024-09-08 06:00:00</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>31,881</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>85,576</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>31,881</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>2024-09-08 06:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2024-09-08 07:00:00</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>97,410</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>185,640</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>185,640</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>2024-09-08 07:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2024-09-08 08:00:00</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>365,126</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>1,037,308</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>365,126</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>2024-09-08 08:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2024-09-08 09:00:00</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>2,295,977</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>248,626</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>248,626</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>2024-09-08 09:02:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2024-09-08 10:00:00</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2,256,001</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>252,744</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>2,256,001</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>2024-09-08 10:02:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2024-09-08 11:00:00</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>1,033,250</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>1,010,081</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>1,010,081</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>2024-09-08 11:02:17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2155,6 +2155,51 @@
           <t>Ma - Nhỏ</t>
         </is>
       </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Ma - Lớn</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Tiên - Nhỏ</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2167,7 +2212,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H272"/>
+  <dimension ref="A1:H281"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -13550,6 +13595,384 @@
         </is>
       </c>
     </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2024-09-08 12:00:00</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>684,481</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>642,130</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>684,481</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>2024-09-08 12:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2024-09-08 13:00:00</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>1,515,295</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>1,039,601</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>1,515,295</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>2024-09-08 13:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2024-09-08 14:00:00</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>970,891</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>1,689,831</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>1,689,831</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>2024-09-08 14:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2024-09-08 15:00:00</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>1,319,756</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>1,633,749</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>1,633,749</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>2024-09-08 15:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2024-09-08 16:00:00</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>627,001</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>1,104,013</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>627,001</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>2024-09-08 16:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2024-09-08 17:00:00</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>1,744,520</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>639,335</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>639,335</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>2024-09-08 17:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2024-09-08 18:00:00</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>2,340,264</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>1,997,031</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>1,997,031</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>2024-09-08 18:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2024-09-08 19:00:00</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>921,100</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>1,245,706</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>1,245,706</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>2024-09-08 19:02:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2024-09-08 20:00:00</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>648,109</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>2,538,206</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>648,109</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>2024-09-08 20:02:17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -479,7 +479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
@@ -2200,6 +2200,33 @@
           <t>Tiên - Nhỏ</t>
         </is>
       </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Ma - Nhỏ</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Tiên - Lớn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2212,7 +2239,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H281"/>
+  <dimension ref="A1:H285"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
@@ -13973,6 +14000,174 @@
         </is>
       </c>
     </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2024-09-08 21:00:00</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>869,667</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>494,813</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Ma Giới</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>494,813</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>2024-09-08 21:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2024-09-08 22:00:00</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>1,649,716</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>1,095,950</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>1,649,716</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>2024-09-08 22:02:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2024-09-08 23:00:00</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>1,458,198</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>571,658</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>1,458,198</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>2024-09-08 23:02:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2024-09-09 11:00:00</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>1,243,907</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>508,094</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Tiên Giới</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>1,243,907</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>2024-09-09 11:02:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
